--- a/test/output-demo_data.xlsx
+++ b/test/output-demo_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Decade</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Director</t>
   </si>
   <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
     <t>The Revenant</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>Train to Busan</t>
   </si>
   <si>
+    <t>tt0175880</t>
+  </si>
+  <si>
     <t>tt1663202</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>MA15+</t>
+  </si>
+  <si>
+    <t>Paul Thomas Anderson</t>
   </si>
   <si>
     <t>Alejandro González Iñárritu</t>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,158 +543,158 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="G2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="H2">
-        <v>135000000</v>
+        <v>37000000</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H3">
-        <v>30000000</v>
+        <v>135000000</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="G4">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H4">
-        <v>90000000</v>
+        <v>30000000</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="G5">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H5">
-        <v>4000000</v>
+        <v>90000000</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="G6">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H6">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="G7">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H7">
-        <v>8575000</v>
+        <v>10000000</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -696,22 +705,48 @@
         <v>18</v>
       </c>
       <c r="G8">
+        <v>145</v>
+      </c>
+      <c r="H8">
+        <v>8575000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
         <v>118</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>8500000</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test/output-demo_data.xlsx
+++ b/test/output-demo_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Decade</t>
   </si>
@@ -34,13 +34,19 @@
     <t>Average Letterboxd Rating</t>
   </si>
   <si>
+    <t>Director</t>
+  </si>
+  <si>
     <t>Runtime (minutes)</t>
   </si>
   <si>
     <t>Budget</t>
   </si>
   <si>
-    <t>IMDB</t>
+    <t>Box Office</t>
+  </si>
+  <si>
+    <t>IMDB ID</t>
   </si>
   <si>
     <t>Country of Origin</t>
@@ -49,9 +55,6 @@
     <t>Classification</t>
   </si>
   <si>
-    <t>Director</t>
-  </si>
-  <si>
     <t>Magnolia</t>
   </si>
   <si>
@@ -76,6 +79,27 @@
     <t>Train to Busan</t>
   </si>
   <si>
+    <t>Paul Thomas Anderson</t>
+  </si>
+  <si>
+    <t>Alejandro González Iñárritu</t>
+  </si>
+  <si>
+    <t>John Lasseter</t>
+  </si>
+  <si>
+    <t>Barry Jenkins</t>
+  </si>
+  <si>
+    <t>Gus Van Sant</t>
+  </si>
+  <si>
+    <t>Park Chan-wook</t>
+  </si>
+  <si>
+    <t>Yeon Sang-ho</t>
+  </si>
+  <si>
     <t>tt0175880</t>
   </si>
   <si>
@@ -119,27 +143,6 @@
   </si>
   <si>
     <t>MA15+</t>
-  </si>
-  <si>
-    <t>Paul Thomas Anderson</t>
-  </si>
-  <si>
-    <t>Alejandro González Iñárritu</t>
-  </si>
-  <si>
-    <t>John Lasseter</t>
-  </si>
-  <si>
-    <t>Barry Jenkins</t>
-  </si>
-  <si>
-    <t>Gus Van Sant</t>
-  </si>
-  <si>
-    <t>Park Chan-wook</t>
-  </si>
-  <si>
-    <t>Yeon Sang-ho</t>
   </si>
 </sst>
 </file>
@@ -497,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,213 +543,240 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2">
         <v>1999</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
         <v>189</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>37000000</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>48451803</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
         <v>157</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>135000000</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
+      <c r="J3">
+        <v>532950503</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4">
         <v>1995</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
         <v>81</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>30000000</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
+      <c r="J4">
+        <v>394436586</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5">
         <v>1999</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
         <v>92</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>90000000</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
+      <c r="J5">
+        <v>497375381</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6">
         <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
         <v>111</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4000000</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
+      <c r="J6">
+        <v>65046687</v>
       </c>
       <c r="K6" t="s">
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>1997</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <v>127</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10000000</v>
       </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
+      <c r="J7">
+        <v>225900000</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>2016</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
         <v>145</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>8575000</v>
       </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
+      <c r="J8">
+        <v>38600000</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>2016</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
         <v>118</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8500000</v>
       </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
+      <c r="J9">
+        <v>87547518</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
